--- a/ATLANTIC_LEPIDOPTERA_sites_altitudinal_cut.xlsx
+++ b/ATLANTIC_LEPIDOPTERA_sites_altitudinal_cut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
   <si>
     <t xml:space="preserve">sites_ID</t>
   </si>
@@ -335,12 +335,30 @@
     <t xml:space="preserve">Curitibanos</t>
   </si>
   <si>
+    <t xml:space="preserve">bor1018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIO DE JANEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITATIAIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paque Nacional do Itatiaia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-2600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campos Rupestres montane savanna</t>
+  </si>
+  <si>
     <t xml:space="preserve">bor1019</t>
   </si>
   <si>
-    <t xml:space="preserve">RIO DE JANEIRO</t>
-  </si>
-  <si>
     <t xml:space="preserve">GUAPIMIRIM</t>
   </si>
   <si>
@@ -383,6 +401,18 @@
     <t xml:space="preserve">900-1000</t>
   </si>
   <si>
+    <t xml:space="preserve">bor1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERESOPOLIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresopolis and Parque Nacional da Serra dos Orgaos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">950-1800</t>
+  </si>
+  <si>
     <t xml:space="preserve">bor1024</t>
   </si>
   <si>
@@ -401,9 +431,6 @@
     <t xml:space="preserve">bor1025</t>
   </si>
   <si>
-    <t xml:space="preserve">TERESOPOLIS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Santa Dalila km 27</t>
   </si>
   <si>
@@ -578,12 +605,24 @@
     <t xml:space="preserve">20-60</t>
   </si>
   <si>
+    <t xml:space="preserve">bor1040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINAS GERAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTO DO CAPARAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parque Nacional do Caparao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900-1800</t>
+  </si>
+  <si>
     <t xml:space="preserve">bor1041</t>
   </si>
   <si>
-    <t xml:space="preserve">MINAS GERAIS</t>
-  </si>
-  <si>
     <t xml:space="preserve">MARLIERIA</t>
   </si>
   <si>
@@ -593,6 +632,42 @@
     <t xml:space="preserve">260-360</t>
   </si>
   <si>
+    <t xml:space="preserve">bor1042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELO HORIZONTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barreiro and Parque Municipal Americo Rene Gianetti and Area de Protecao Especial Manancial Cercadinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bor1043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTE VERDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monte Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1600-1700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bor1044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTREMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extrema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000-1650</t>
+  </si>
+  <si>
     <t xml:space="preserve">bor1045</t>
   </si>
   <si>
@@ -659,6 +734,15 @@
     <t xml:space="preserve">850-950</t>
   </si>
   <si>
+    <t xml:space="preserve">bor1050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAO LUIZ DO PARAITINGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Luis Do Paraitinga</t>
+  </si>
+  <si>
     <t xml:space="preserve">bor1051</t>
   </si>
   <si>
@@ -767,6 +851,18 @@
     <t xml:space="preserve">500</t>
   </si>
   <si>
+    <t xml:space="preserve">bor1061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPOS DO JORDAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parque Estadual Campos do Jord�o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1600-2000</t>
+  </si>
+  <si>
     <t xml:space="preserve">bor1062</t>
   </si>
   <si>
@@ -893,6 +989,18 @@
     <t xml:space="preserve">655-700</t>
   </si>
   <si>
+    <t xml:space="preserve">bor1073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINDAMONHANGABA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pindamonhangaba and Trabiju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">720-1100</t>
+  </si>
+  <si>
     <t xml:space="preserve">bor1074</t>
   </si>
   <si>
@@ -1154,6 +1262,18 @@
     <t xml:space="preserve">210-310</t>
   </si>
   <si>
+    <t xml:space="preserve">bor1093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUERTO IGUAZU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parque y Reserva Nacional Iguazu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180-250</t>
+  </si>
+  <si>
     <t xml:space="preserve">bor1094</t>
   </si>
   <si>
@@ -1202,6 +1322,30 @@
     <t xml:space="preserve">800-850</t>
   </si>
   <si>
+    <t xml:space="preserve">bor1098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTANA DO RIACHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parque Nacional da Serra do Cipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600-1800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bor1099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOVA LIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area de Protecao Especial Manancial Mutuca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1100-1200</t>
+  </si>
+  <si>
     <t xml:space="preserve">bor1100</t>
   </si>
   <si>
@@ -1247,6 +1391,18 @@
     <t xml:space="preserve">640-720</t>
   </si>
   <si>
+    <t xml:space="preserve">bor1104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDREGULHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parque Estadual das Furnas do Bom Jesus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800-970</t>
+  </si>
+  <si>
     <t xml:space="preserve">bor1105</t>
   </si>
   <si>
@@ -1431,6 +1587,18 @@
   </si>
   <si>
     <t xml:space="preserve">320-600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bor1120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POCOS DE CALDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po�os de Caldas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300-1600</t>
   </si>
   <si>
     <t xml:space="preserve">bor1121</t>
@@ -2729,43 +2897,45 @@
         <v>110</v>
       </c>
       <c r="F19" t="n">
-        <v>-22.49305556</v>
+        <v>-22.375278</v>
       </c>
       <c r="G19" t="n">
-        <v>-42.94916667</v>
+        <v>-44.662222</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19"/>
+        <v>111</v>
+      </c>
+      <c r="I19" t="n">
+        <v>28086.06751</v>
+      </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K19" t="n">
-        <v>305</v>
+        <v>2534</v>
       </c>
       <c r="L19" t="n">
-        <v>22</v>
+        <v>9.39</v>
       </c>
       <c r="M19" t="n">
-        <v>1441</v>
+        <v>2300</v>
       </c>
       <c r="N19" t="s">
         <v>24</v>
       </c>
       <c r="O19" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="P19" t="s">
         <v>92</v>
       </c>
       <c r="Q19" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -2774,34 +2944,32 @@
         <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" t="n">
-        <v>-22.45388889</v>
+        <v>-22.49305556</v>
       </c>
       <c r="G20" t="n">
-        <v>-42.77166667</v>
+        <v>-42.94916667</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
       </c>
-      <c r="I20" t="n">
-        <v>7.385</v>
-      </c>
+      <c r="I20"/>
       <c r="J20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" t="n">
-        <v>120</v>
+        <v>305</v>
       </c>
       <c r="L20" t="n">
-        <v>22.85</v>
+        <v>22</v>
       </c>
       <c r="M20" t="n">
-        <v>1284</v>
+        <v>1441</v>
       </c>
       <c r="N20" t="s">
         <v>24</v>
@@ -2818,7 +2986,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -2827,32 +2995,34 @@
         <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F21" t="n">
-        <v>-22.40583333</v>
+        <v>-22.45388889</v>
       </c>
       <c r="G21" t="n">
-        <v>-42.60694444</v>
+        <v>-42.77166667</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
       </c>
-      <c r="I21"/>
+      <c r="I21" t="n">
+        <v>7.385</v>
+      </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K21" t="n">
-        <v>488</v>
+        <v>120</v>
       </c>
       <c r="L21" t="n">
-        <v>20.28</v>
+        <v>22.85</v>
       </c>
       <c r="M21" t="n">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="N21" t="s">
         <v>24</v>
@@ -2869,7 +3039,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -2878,32 +3048,32 @@
         <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F22" t="n">
-        <v>-22.54416667</v>
+        <v>-22.40583333</v>
       </c>
       <c r="G22" t="n">
-        <v>-43.20472222</v>
+        <v>-42.60694444</v>
       </c>
       <c r="H22" t="s">
         <v>37</v>
       </c>
       <c r="I22"/>
       <c r="J22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K22" t="n">
-        <v>592</v>
+        <v>488</v>
       </c>
       <c r="L22" t="n">
-        <v>18.38</v>
+        <v>20.28</v>
       </c>
       <c r="M22" t="n">
-        <v>1867</v>
+        <v>1277</v>
       </c>
       <c r="N22" t="s">
         <v>24</v>
@@ -2920,7 +3090,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -2929,32 +3099,32 @@
         <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F23" t="n">
-        <v>-22.28</v>
+        <v>-22.54416667</v>
       </c>
       <c r="G23" t="n">
-        <v>-42.51361111</v>
+        <v>-43.20472222</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K23" t="n">
-        <v>916</v>
+        <v>592</v>
       </c>
       <c r="L23" t="n">
-        <v>17.17</v>
+        <v>18.38</v>
       </c>
       <c r="M23" t="n">
-        <v>1412</v>
+        <v>1867</v>
       </c>
       <c r="N23" t="s">
         <v>24</v>
@@ -2971,7 +3141,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -2980,32 +3150,34 @@
         <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F24" t="n">
-        <v>-22.64722222</v>
+        <v>-22.455</v>
       </c>
       <c r="G24" t="n">
-        <v>-43.09055556</v>
+        <v>-43.00055556</v>
       </c>
       <c r="H24" t="s">
         <v>37</v>
       </c>
-      <c r="I24"/>
+      <c r="I24" t="n">
+        <v>10.653</v>
+      </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="K24" t="n">
-        <v>19</v>
+        <v>1079</v>
       </c>
       <c r="L24" t="n">
-        <v>22.85</v>
+        <v>15.53</v>
       </c>
       <c r="M24" t="n">
-        <v>1445</v>
+        <v>1745</v>
       </c>
       <c r="N24" t="s">
         <v>24</v>
@@ -3013,12 +3185,16 @@
       <c r="O24" t="s">
         <v>91</v>
       </c>
-      <c r="P24"/>
-      <c r="Q24"/>
+      <c r="P24" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -3027,32 +3203,32 @@
         <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F25" t="n">
-        <v>-22.94611111</v>
+        <v>-22.28</v>
       </c>
       <c r="G25" t="n">
-        <v>-43.22916667</v>
+        <v>-42.51361111</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="I25"/>
       <c r="J25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K25" t="n">
-        <v>282</v>
+        <v>916</v>
       </c>
       <c r="L25" t="n">
-        <v>20.45</v>
+        <v>17.17</v>
       </c>
       <c r="M25" t="n">
-        <v>1372</v>
+        <v>1412</v>
       </c>
       <c r="N25" t="s">
         <v>24</v>
@@ -3060,12 +3236,16 @@
       <c r="O25" t="s">
         <v>91</v>
       </c>
-      <c r="P25"/>
-      <c r="Q25"/>
+      <c r="P25" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -3074,32 +3254,32 @@
         <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F26" t="n">
-        <v>-22.54694444</v>
+        <v>-22.64722222</v>
       </c>
       <c r="G26" t="n">
-        <v>-43.30111111</v>
+        <v>-43.09055556</v>
       </c>
       <c r="H26" t="s">
         <v>37</v>
       </c>
       <c r="I26"/>
       <c r="J26" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="K26" t="n">
-        <v>270</v>
+        <v>19</v>
       </c>
       <c r="L26" t="n">
-        <v>21.33</v>
+        <v>22.85</v>
       </c>
       <c r="M26" t="n">
-        <v>1929</v>
+        <v>1445</v>
       </c>
       <c r="N26" t="s">
         <v>24</v>
@@ -3107,16 +3287,12 @@
       <c r="O26" t="s">
         <v>91</v>
       </c>
-      <c r="P26" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>93</v>
-      </c>
+      <c r="P26"/>
+      <c r="Q26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -3125,32 +3301,32 @@
         <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F27" t="n">
-        <v>-22.54361111</v>
+        <v>-22.94611111</v>
       </c>
       <c r="G27" t="n">
-        <v>-42.01416667</v>
+        <v>-43.22916667</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I27"/>
       <c r="J27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K27" t="n">
-        <v>105</v>
+        <v>282</v>
       </c>
       <c r="L27" t="n">
-        <v>22.83</v>
+        <v>20.45</v>
       </c>
       <c r="M27" t="n">
-        <v>1205</v>
+        <v>1372</v>
       </c>
       <c r="N27" t="s">
         <v>24</v>
@@ -3158,16 +3334,12 @@
       <c r="O27" t="s">
         <v>91</v>
       </c>
-      <c r="P27" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>93</v>
-      </c>
+      <c r="P27"/>
+      <c r="Q27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -3176,34 +3348,32 @@
         <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F28" t="n">
-        <v>-22.52416667</v>
+        <v>-22.54694444</v>
       </c>
       <c r="G28" t="n">
-        <v>-42.26666667</v>
+        <v>-43.30111111</v>
       </c>
       <c r="H28" t="s">
         <v>37</v>
       </c>
-      <c r="I28" t="n">
-        <v>5052.48041</v>
-      </c>
+      <c r="I28"/>
       <c r="J28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K28" t="n">
-        <v>63</v>
+        <v>270</v>
       </c>
       <c r="L28" t="n">
-        <v>22.78</v>
+        <v>21.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1165</v>
+        <v>1929</v>
       </c>
       <c r="N28" t="s">
         <v>24</v>
@@ -3220,7 +3390,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -3229,32 +3399,32 @@
         <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F29" t="n">
-        <v>-22.43972222</v>
+        <v>-22.54361111</v>
       </c>
       <c r="G29" t="n">
-        <v>-42.06694444</v>
+        <v>-42.01416667</v>
       </c>
       <c r="H29" t="s">
         <v>37</v>
       </c>
       <c r="I29"/>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K29" t="n">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="L29" t="n">
-        <v>22.33</v>
+        <v>22.83</v>
       </c>
       <c r="M29" t="n">
-        <v>1197</v>
+        <v>1205</v>
       </c>
       <c r="N29" t="s">
         <v>24</v>
@@ -3271,13 +3441,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
         <v>152</v>
@@ -3286,397 +3456,399 @@
         <v>153</v>
       </c>
       <c r="F30" t="n">
-        <v>-18.43666667</v>
+        <v>-22.52416667</v>
       </c>
       <c r="G30" t="n">
-        <v>-39.94888889</v>
+        <v>-42.26666667</v>
       </c>
       <c r="H30" t="s">
         <v>37</v>
       </c>
-      <c r="I30"/>
+      <c r="I30" t="n">
+        <v>5052.48041</v>
+      </c>
       <c r="J30" t="s">
         <v>154</v>
       </c>
       <c r="K30" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="L30" t="n">
-        <v>24.04</v>
+        <v>22.78</v>
       </c>
       <c r="M30" t="n">
-        <v>1290</v>
+        <v>1165</v>
       </c>
       <c r="N30" t="s">
         <v>24</v>
       </c>
       <c r="O30" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="P30" t="s">
         <v>92</v>
       </c>
       <c r="Q30" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" t="s">
         <v>157</v>
       </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" t="s">
-        <v>159</v>
-      </c>
       <c r="F31" t="n">
-        <v>-19.92916667</v>
+        <v>-22.43972222</v>
       </c>
       <c r="G31" t="n">
-        <v>-40.565</v>
+        <v>-42.06694444</v>
       </c>
       <c r="H31" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="I31"/>
       <c r="J31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K31" t="n">
-        <v>690</v>
+        <v>144</v>
       </c>
       <c r="L31" t="n">
-        <v>19.27</v>
+        <v>22.33</v>
       </c>
       <c r="M31" t="n">
-        <v>1326</v>
+        <v>1197</v>
       </c>
       <c r="N31" t="s">
         <v>24</v>
       </c>
       <c r="O31" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="P31" t="s">
         <v>92</v>
       </c>
       <c r="Q31" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" t="s">
         <v>162</v>
       </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" t="s">
-        <v>163</v>
-      </c>
       <c r="F32" t="n">
-        <v>-20.04416667</v>
+        <v>-18.43666667</v>
       </c>
       <c r="G32" t="n">
-        <v>-40.53611111</v>
+        <v>-39.94888889</v>
       </c>
       <c r="H32" t="s">
         <v>37</v>
       </c>
       <c r="I32"/>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="K32" t="n">
-        <v>606</v>
+        <v>42</v>
       </c>
       <c r="L32" t="n">
-        <v>20.68</v>
+        <v>24.04</v>
       </c>
       <c r="M32" t="n">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="N32" t="s">
         <v>24</v>
       </c>
       <c r="O32" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P32" t="s">
         <v>92</v>
       </c>
       <c r="Q32" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F33" t="n">
-        <v>-18.18361111</v>
+        <v>-19.92916667</v>
       </c>
       <c r="G33" t="n">
-        <v>-40.09583333</v>
+        <v>-40.565</v>
       </c>
       <c r="H33" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="I33"/>
       <c r="J33" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K33" t="n">
-        <v>71</v>
+        <v>690</v>
       </c>
       <c r="L33" t="n">
-        <v>24.11</v>
+        <v>19.27</v>
       </c>
       <c r="M33" t="n">
-        <v>1228</v>
+        <v>1326</v>
       </c>
       <c r="N33" t="s">
         <v>24</v>
       </c>
       <c r="O33" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P33" t="s">
         <v>92</v>
       </c>
       <c r="Q33" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F34" t="n">
-        <v>-19.43638889</v>
+        <v>-20.04416667</v>
       </c>
       <c r="G34" t="n">
-        <v>-40.08111111</v>
+        <v>-40.53611111</v>
       </c>
       <c r="H34" t="s">
         <v>37</v>
       </c>
-      <c r="I34" t="n">
-        <v>1425.635786</v>
-      </c>
+      <c r="I34"/>
       <c r="J34" t="s">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="K34" t="n">
-        <v>18</v>
+        <v>606</v>
       </c>
       <c r="L34" t="n">
-        <v>23.61</v>
+        <v>20.68</v>
       </c>
       <c r="M34" t="n">
-        <v>1193</v>
+        <v>1298</v>
       </c>
       <c r="N34" t="s">
         <v>24</v>
       </c>
       <c r="O34" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P34" t="s">
         <v>92</v>
       </c>
       <c r="Q34" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F35" t="n">
-        <v>-20.08222222</v>
+        <v>-18.18361111</v>
       </c>
       <c r="G35" t="n">
-        <v>-40.56111111</v>
+        <v>-40.09583333</v>
       </c>
       <c r="H35" t="s">
         <v>37</v>
       </c>
       <c r="I35"/>
       <c r="J35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K35" t="n">
-        <v>517</v>
+        <v>71</v>
       </c>
       <c r="L35" t="n">
-        <v>21.27</v>
+        <v>24.11</v>
       </c>
       <c r="M35" t="n">
-        <v>1277</v>
+        <v>1228</v>
       </c>
       <c r="N35" t="s">
         <v>24</v>
       </c>
       <c r="O35" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P35" t="s">
         <v>92</v>
       </c>
       <c r="Q35" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F36" t="n">
-        <v>-19.62333333</v>
+        <v>-19.43638889</v>
       </c>
       <c r="G36" t="n">
-        <v>-40.87416667</v>
+        <v>-40.08111111</v>
       </c>
       <c r="H36" t="s">
         <v>37</v>
       </c>
-      <c r="I36"/>
+      <c r="I36" t="n">
+        <v>1425.635786</v>
+      </c>
       <c r="J36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K36" t="n">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="L36" t="n">
-        <v>23.1</v>
+        <v>23.61</v>
       </c>
       <c r="M36" t="n">
-        <v>1186</v>
+        <v>1193</v>
       </c>
       <c r="N36" t="s">
         <v>24</v>
       </c>
       <c r="O36" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P36" t="s">
         <v>92</v>
       </c>
       <c r="Q36" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F37" t="n">
-        <v>-19.4675</v>
+        <v>-20.08222222</v>
       </c>
       <c r="G37" t="n">
-        <v>-41.06388889</v>
+        <v>-40.56111111</v>
       </c>
       <c r="H37" t="s">
         <v>37</v>
       </c>
       <c r="I37"/>
       <c r="J37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K37" t="n">
-        <v>139</v>
+        <v>517</v>
       </c>
       <c r="L37" t="n">
-        <v>23.26</v>
+        <v>21.27</v>
       </c>
       <c r="M37" t="n">
-        <v>1150</v>
+        <v>1277</v>
       </c>
       <c r="N37" t="s">
         <v>24</v>
       </c>
       <c r="O37" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="P37" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="Q37" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38">
@@ -3687,60 +3859,58 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F38" t="n">
-        <v>-19.14861111</v>
+        <v>-19.62333333</v>
       </c>
       <c r="G38" t="n">
-        <v>-40.04555556</v>
+        <v>-40.87416667</v>
       </c>
       <c r="H38" t="s">
         <v>37</v>
       </c>
-      <c r="I38" t="n">
-        <v>21787</v>
-      </c>
+      <c r="I38"/>
       <c r="J38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K38" t="n">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="L38" t="n">
-        <v>23.55</v>
+        <v>23.1</v>
       </c>
       <c r="M38" t="n">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="N38" t="s">
         <v>24</v>
       </c>
       <c r="O38" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P38" t="s">
         <v>92</v>
       </c>
       <c r="Q38" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
         <v>190</v>
@@ -3749,34 +3919,32 @@
         <v>191</v>
       </c>
       <c r="F39" t="n">
-        <v>-19.8</v>
+        <v>-19.4675</v>
       </c>
       <c r="G39" t="n">
-        <v>-42.63333333</v>
+        <v>-41.06388889</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" t="n">
-        <v>35970</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I39"/>
       <c r="J39" t="s">
         <v>192</v>
       </c>
       <c r="K39" t="n">
-        <v>297</v>
+        <v>139</v>
       </c>
       <c r="L39" t="n">
-        <v>22.69</v>
+        <v>23.26</v>
       </c>
       <c r="M39" t="n">
-        <v>1213</v>
+        <v>1150</v>
       </c>
       <c r="N39" t="s">
         <v>24</v>
       </c>
       <c r="O39" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="P39" t="s">
         <v>54</v>
@@ -3787,102 +3955,108 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" t="s">
         <v>195</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="n">
+        <v>-19.14861111</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-40.04555556</v>
+      </c>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" t="n">
+        <v>21787</v>
+      </c>
+      <c r="J40" t="s">
         <v>196</v>
       </c>
-      <c r="F40" t="n">
-        <v>-23.99861111</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-46.4425</v>
-      </c>
-      <c r="H40" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40"/>
-      <c r="J40" t="s">
-        <v>197</v>
-      </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="L40" t="n">
-        <v>22.79</v>
+        <v>23.55</v>
       </c>
       <c r="M40" t="n">
-        <v>2512</v>
-      </c>
-      <c r="N40"/>
+        <v>1191</v>
+      </c>
+      <c r="N40" t="s">
+        <v>24</v>
+      </c>
       <c r="O40" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="P40" t="s">
         <v>92</v>
       </c>
       <c r="Q40" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" t="s">
         <v>199</v>
       </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>200</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="n">
+        <v>-20.41916667</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-41.84416667</v>
+      </c>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" t="n">
+        <v>31762.93446</v>
+      </c>
+      <c r="J41" t="s">
         <v>201</v>
       </c>
-      <c r="F41" t="n">
-        <v>-23.81527778</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-46.30388889</v>
-      </c>
-      <c r="H41" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41"/>
-      <c r="J41" t="s">
-        <v>197</v>
-      </c>
       <c r="K41" t="n">
-        <v>340</v>
+        <v>1522</v>
       </c>
       <c r="L41" t="n">
-        <v>21.24</v>
+        <v>16</v>
       </c>
       <c r="M41" t="n">
-        <v>2902</v>
+        <v>1382</v>
       </c>
       <c r="N41" t="s">
         <v>24</v>
       </c>
       <c r="O41" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="Q41" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
@@ -3893,7 +4067,7 @@
         <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
         <v>203</v>
@@ -3902,34 +4076,34 @@
         <v>204</v>
       </c>
       <c r="F42" t="n">
-        <v>-22.45</v>
+        <v>-19.8</v>
       </c>
       <c r="G42" t="n">
-        <v>-52.16666667</v>
+        <v>-42.63333333</v>
       </c>
       <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="n">
+        <v>35970</v>
+      </c>
+      <c r="J42" t="s">
         <v>205</v>
       </c>
-      <c r="I42" t="n">
-        <v>33845.33</v>
-      </c>
-      <c r="J42" t="s">
-        <v>206</v>
-      </c>
       <c r="K42" t="n">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L42" t="n">
-        <v>22.48</v>
+        <v>22.69</v>
       </c>
       <c r="M42" t="n">
-        <v>1159</v>
+        <v>1213</v>
       </c>
       <c r="N42" t="s">
         <v>24</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="P42" t="s">
         <v>54</v>
@@ -3940,96 +4114,92 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" t="s">
         <v>207</v>
       </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>194</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>208</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="n">
+        <v>-20.004822</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-43.998219</v>
+      </c>
+      <c r="H43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43" t="s">
         <v>209</v>
       </c>
-      <c r="F43" t="n">
-        <v>-23.23111111</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-46.93555556</v>
-      </c>
-      <c r="H43" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2071</v>
-      </c>
-      <c r="J43" t="s">
-        <v>210</v>
-      </c>
       <c r="K43" t="n">
-        <v>950</v>
+        <v>1093</v>
       </c>
       <c r="L43" t="n">
-        <v>17.17</v>
+        <v>19.7</v>
       </c>
       <c r="M43" t="n">
-        <v>1373</v>
+        <v>1579</v>
       </c>
       <c r="N43" t="s">
         <v>24</v>
       </c>
       <c r="O43" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="P43" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="Q43" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" t="s">
         <v>211</v>
       </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>212</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="n">
+        <v>-22.877483</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-46.032097</v>
+      </c>
+      <c r="H44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44"/>
+      <c r="J44" t="s">
         <v>213</v>
       </c>
-      <c r="F44" t="n">
-        <v>-23.71416667</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-46.99694444</v>
-      </c>
-      <c r="H44" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" t="n">
-        <v>10600</v>
-      </c>
-      <c r="J44" t="s">
-        <v>214</v>
-      </c>
       <c r="K44" t="n">
-        <v>917</v>
+        <v>1777</v>
       </c>
       <c r="L44" t="n">
-        <v>16.78</v>
+        <v>13.3</v>
       </c>
       <c r="M44" t="n">
-        <v>1574</v>
+        <v>1796</v>
       </c>
       <c r="N44" t="s">
         <v>24</v>
@@ -4046,100 +4216,96 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" t="s">
         <v>215</v>
       </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>216</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="n">
+        <v>-22.9</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-46.33333333</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45" t="s">
         <v>217</v>
       </c>
-      <c r="F45" t="n">
-        <v>-22.82194444</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-47.10805556</v>
-      </c>
-      <c r="H45" t="s">
-        <v>37</v>
-      </c>
-      <c r="I45" t="n">
-        <v>241.5513778</v>
-      </c>
-      <c r="J45" t="s">
-        <v>218</v>
-      </c>
       <c r="K45" t="n">
-        <v>610</v>
+        <v>1325</v>
       </c>
       <c r="L45" t="n">
-        <v>20.52</v>
+        <v>15.9</v>
       </c>
       <c r="M45" t="n">
-        <v>1277</v>
+        <v>1604</v>
       </c>
       <c r="N45" t="s">
         <v>24</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="Q45" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
         <v>219</v>
       </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>194</v>
-      </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F46" t="n">
-        <v>-22.93194444</v>
+        <v>-23.99861111</v>
       </c>
       <c r="G46" t="n">
-        <v>-46.89138889</v>
+        <v>-46.4425</v>
       </c>
       <c r="H46" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I46"/>
       <c r="J46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K46" t="n">
-        <v>708</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>19.08</v>
+        <v>22.79</v>
       </c>
       <c r="M46" t="n">
-        <v>1302</v>
-      </c>
-      <c r="N46" t="s">
-        <v>24</v>
-      </c>
+        <v>2512</v>
+      </c>
+      <c r="N46"/>
       <c r="O46" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="P46" t="s">
         <v>92</v>
@@ -4150,251 +4316,251 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E47" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F47" t="n">
-        <v>-22.93333333</v>
+        <v>-23.81527778</v>
       </c>
       <c r="G47" t="n">
-        <v>-47.05</v>
+        <v>-46.30388889</v>
       </c>
       <c r="H47" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="I47"/>
       <c r="J47" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K47" t="n">
-        <v>684</v>
+        <v>340</v>
       </c>
       <c r="L47" t="n">
-        <v>20.22</v>
+        <v>21.24</v>
       </c>
       <c r="M47" t="n">
-        <v>1338</v>
+        <v>2902</v>
       </c>
       <c r="N47" t="s">
         <v>24</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P47" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="Q47" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F48" t="n">
-        <v>-23.137418</v>
+        <v>-22.45</v>
       </c>
       <c r="G48" t="n">
-        <v>-46.567749</v>
+        <v>-52.16666667</v>
       </c>
       <c r="H48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I48"/>
+        <v>230</v>
+      </c>
+      <c r="I48" t="n">
+        <v>33845.33</v>
+      </c>
       <c r="J48" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K48" t="n">
-        <v>802</v>
+        <v>307</v>
       </c>
       <c r="L48" t="n">
-        <v>18.45</v>
+        <v>22.48</v>
       </c>
       <c r="M48" t="n">
-        <v>1359</v>
+        <v>1159</v>
       </c>
       <c r="N48" t="s">
         <v>24</v>
       </c>
       <c r="O48" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="P48" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="Q48" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D49" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E49" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F49" t="n">
-        <v>-21.85138889</v>
+        <v>-23.23111111</v>
       </c>
       <c r="G49" t="n">
-        <v>-47.42861111</v>
+        <v>-46.93555556</v>
       </c>
       <c r="H49" t="s">
         <v>37</v>
       </c>
       <c r="I49" t="n">
-        <v>680.91</v>
+        <v>2071</v>
       </c>
       <c r="J49" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K49" t="n">
-        <v>607</v>
+        <v>950</v>
       </c>
       <c r="L49" t="n">
-        <v>21.78</v>
+        <v>17.17</v>
       </c>
       <c r="M49" t="n">
-        <v>1346</v>
+        <v>1373</v>
       </c>
       <c r="N49" t="s">
         <v>24</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P49" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="Q49" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E50" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F50" t="n">
-        <v>-24.27833333</v>
+        <v>-23.71416667</v>
       </c>
       <c r="G50" t="n">
-        <v>-48.41861111</v>
+        <v>-46.99694444</v>
       </c>
       <c r="H50" t="s">
         <v>37</v>
       </c>
       <c r="I50" t="n">
-        <v>41704</v>
+        <v>10600</v>
       </c>
       <c r="J50" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K50" t="n">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="L50" t="n">
-        <v>17.4</v>
+        <v>16.78</v>
       </c>
       <c r="M50" t="n">
-        <v>1420</v>
+        <v>1574</v>
       </c>
       <c r="N50" t="s">
         <v>24</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="Q50" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D51" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F51" t="n">
-        <v>-22.82888889</v>
+        <v>-23.33333333</v>
       </c>
       <c r="G51" t="n">
-        <v>-46.92361111</v>
+        <v>-45.33333333</v>
       </c>
       <c r="H51" t="s">
         <v>37</v>
       </c>
-      <c r="I51" t="n">
-        <v>213.9</v>
-      </c>
+      <c r="I51"/>
       <c r="J51" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="K51" t="n">
-        <v>655</v>
+        <v>1035</v>
       </c>
       <c r="L51" t="n">
-        <v>19.44</v>
+        <v>16.8</v>
       </c>
       <c r="M51" t="n">
-        <v>1294</v>
+        <v>1624</v>
       </c>
       <c r="N51" t="s">
         <v>24</v>
@@ -4411,41 +4577,43 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D52" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E52" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F52" t="n">
-        <v>-22.38111111</v>
+        <v>-22.82194444</v>
       </c>
       <c r="G52" t="n">
-        <v>-47.31888889</v>
+        <v>-47.10805556</v>
       </c>
       <c r="H52" t="s">
         <v>37</v>
       </c>
-      <c r="I52"/>
+      <c r="I52" t="n">
+        <v>241.5513778</v>
+      </c>
       <c r="J52" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K52" t="n">
         <v>610</v>
       </c>
       <c r="L52" t="n">
-        <v>20.5</v>
+        <v>20.52</v>
       </c>
       <c r="M52" t="n">
-        <v>1303</v>
+        <v>1277</v>
       </c>
       <c r="N52" t="s">
         <v>24</v>
@@ -4454,7 +4622,7 @@
         <v>53</v>
       </c>
       <c r="P52" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="Q52" t="s">
         <v>41</v>
@@ -4462,94 +4630,92 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" t="s">
         <v>244</v>
       </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" t="s">
-        <v>245</v>
-      </c>
       <c r="E53" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F53" t="n">
-        <v>-20.825</v>
+        <v>-22.93194444</v>
       </c>
       <c r="G53" t="n">
-        <v>-49.50972222</v>
+        <v>-46.89138889</v>
       </c>
       <c r="H53" t="s">
-        <v>160</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20.34</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I53"/>
       <c r="J53" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K53" t="n">
-        <v>462</v>
+        <v>708</v>
       </c>
       <c r="L53" t="n">
-        <v>22.55</v>
+        <v>19.08</v>
       </c>
       <c r="M53" t="n">
-        <v>1224</v>
+        <v>1302</v>
       </c>
       <c r="N53" t="s">
         <v>24</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="Q53" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E54" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F54" t="n">
-        <v>-20.80638889</v>
+        <v>-22.93333333</v>
       </c>
       <c r="G54" t="n">
-        <v>-49.58916667</v>
+        <v>-47.05</v>
       </c>
       <c r="H54" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="I54"/>
       <c r="J54" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K54" t="n">
-        <v>462</v>
+        <v>684</v>
       </c>
       <c r="L54" t="n">
-        <v>22.6</v>
+        <v>20.22</v>
       </c>
       <c r="M54" t="n">
-        <v>1205</v>
+        <v>1338</v>
       </c>
       <c r="N54" t="s">
         <v>24</v>
@@ -4558,7 +4724,7 @@
         <v>53</v>
       </c>
       <c r="P54" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="Q54" t="s">
         <v>41</v>
@@ -4566,92 +4732,94 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D55" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F55" t="n">
-        <v>-22.83333333</v>
+        <v>-23.137418</v>
       </c>
       <c r="G55" t="n">
-        <v>-48.51666667</v>
+        <v>-46.567749</v>
       </c>
       <c r="H55" t="s">
         <v>37</v>
       </c>
       <c r="I55"/>
       <c r="J55" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K55" t="n">
-        <v>758</v>
+        <v>802</v>
       </c>
       <c r="L55" t="n">
-        <v>19.34</v>
+        <v>18.45</v>
       </c>
       <c r="M55" t="n">
-        <v>1323</v>
+        <v>1359</v>
       </c>
       <c r="N55" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="O55" t="s">
-        <v>255</v>
+        <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="Q55" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E56" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F56" t="n">
-        <v>-21.46666667</v>
+        <v>-21.85138889</v>
       </c>
       <c r="G56" t="n">
-        <v>-46.8</v>
+        <v>-47.42861111</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
-      </c>
-      <c r="I56"/>
+        <v>37</v>
+      </c>
+      <c r="I56" t="n">
+        <v>680.91</v>
+      </c>
       <c r="J56" t="s">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="K56" t="n">
-        <v>773</v>
+        <v>607</v>
       </c>
       <c r="L56" t="n">
-        <v>20.29</v>
+        <v>21.78</v>
       </c>
       <c r="M56" t="n">
-        <v>1451</v>
+        <v>1346</v>
       </c>
       <c r="N56" t="s">
         <v>24</v>
@@ -4668,43 +4836,43 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D57" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E57" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F57" t="n">
-        <v>-22.421086</v>
+        <v>-24.27833333</v>
       </c>
       <c r="G57" t="n">
-        <v>-47.531903</v>
+        <v>-48.41861111</v>
       </c>
       <c r="H57" t="s">
         <v>37</v>
       </c>
       <c r="I57" t="n">
-        <v>2230</v>
+        <v>41704</v>
       </c>
       <c r="J57" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K57" t="n">
-        <v>609</v>
+        <v>916</v>
       </c>
       <c r="L57" t="n">
-        <v>20.23</v>
+        <v>17.4</v>
       </c>
       <c r="M57" t="n">
-        <v>1270</v>
+        <v>1420</v>
       </c>
       <c r="N57" t="s">
         <v>24</v>
@@ -4713,7 +4881,7 @@
         <v>53</v>
       </c>
       <c r="P57" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="Q57" t="s">
         <v>41</v>
@@ -4721,101 +4889,103 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D58" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E58" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F58" t="n">
-        <v>-21.32222222</v>
+        <v>-22.82888889</v>
       </c>
       <c r="G58" t="n">
-        <v>-47.28166667</v>
+        <v>-46.92361111</v>
       </c>
       <c r="H58" t="s">
         <v>37</v>
       </c>
-      <c r="I58"/>
+      <c r="I58" t="n">
+        <v>213.9</v>
+      </c>
       <c r="J58" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K58" t="n">
-        <v>784</v>
+        <v>655</v>
       </c>
       <c r="L58" t="n">
-        <v>20.77</v>
+        <v>19.44</v>
       </c>
       <c r="M58" t="n">
-        <v>1462</v>
+        <v>1294</v>
       </c>
       <c r="N58" t="s">
         <v>24</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P58" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="Q58" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D59" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E59" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F59" t="n">
-        <v>-20.664522</v>
+        <v>-22.38111111</v>
       </c>
       <c r="G59" t="n">
-        <v>-47.271435</v>
+        <v>-47.31888889</v>
       </c>
       <c r="H59" t="s">
         <v>37</v>
       </c>
       <c r="I59"/>
       <c r="J59" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K59" t="n">
-        <v>848</v>
+        <v>610</v>
       </c>
       <c r="L59" t="n">
-        <v>20.76</v>
+        <v>20.5</v>
       </c>
       <c r="M59" t="n">
-        <v>1537</v>
+        <v>1303</v>
       </c>
       <c r="N59" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="O59" t="s">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="P59" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q59" t="s">
         <v>41</v>
@@ -4823,50 +4993,52 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D60" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E60" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F60" t="n">
-        <v>-22.43333333</v>
+        <v>-20.825</v>
       </c>
       <c r="G60" t="n">
-        <v>-46.8</v>
+        <v>-49.50972222</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
-      </c>
-      <c r="I60"/>
+        <v>169</v>
+      </c>
+      <c r="I60" t="n">
+        <v>20.34</v>
+      </c>
       <c r="J60" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K60" t="n">
-        <v>751</v>
+        <v>462</v>
       </c>
       <c r="L60" t="n">
-        <v>20.14</v>
+        <v>22.55</v>
       </c>
       <c r="M60" t="n">
-        <v>1357</v>
+        <v>1224</v>
       </c>
       <c r="N60" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="O60" t="s">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="P60" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="Q60" t="s">
         <v>41</v>
@@ -4874,46 +5046,54 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D61" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E61" t="s">
         <v>277</v>
       </c>
       <c r="F61" t="n">
-        <v>-25.185</v>
+        <v>-20.80638889</v>
       </c>
       <c r="G61" t="n">
-        <v>-47.99527778</v>
+        <v>-49.58916667</v>
       </c>
       <c r="H61" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I61"/>
       <c r="J61" t="s">
         <v>278</v>
       </c>
       <c r="K61" t="n">
-        <v>10</v>
-      </c>
-      <c r="L61"/>
-      <c r="M61"/>
+        <v>462</v>
+      </c>
+      <c r="L61" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1205</v>
+      </c>
       <c r="N61" t="s">
         <v>24</v>
       </c>
       <c r="O61" t="s">
-        <v>91</v>
-      </c>
-      <c r="P61"/>
-      <c r="Q61"/>
+        <v>53</v>
+      </c>
+      <c r="P61" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -4923,7 +5103,7 @@
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D62" t="s">
         <v>280</v>
@@ -4932,28 +5112,28 @@
         <v>281</v>
       </c>
       <c r="F62" t="n">
-        <v>-23.347353</v>
+        <v>-22.72611111</v>
       </c>
       <c r="G62" t="n">
-        <v>-44.844806</v>
+        <v>-45.53444444</v>
       </c>
       <c r="H62" t="s">
         <v>37</v>
       </c>
       <c r="I62" t="n">
-        <v>332000</v>
+        <v>8341</v>
       </c>
       <c r="J62" t="s">
         <v>282</v>
       </c>
       <c r="K62" t="n">
-        <v>175</v>
+        <v>1773</v>
       </c>
       <c r="L62" t="n">
-        <v>22.4</v>
+        <v>13.13</v>
       </c>
       <c r="M62" t="n">
-        <v>2561</v>
+        <v>1856</v>
       </c>
       <c r="N62" t="s">
         <v>24</v>
@@ -4961,8 +5141,12 @@
       <c r="O62" t="s">
         <v>91</v>
       </c>
-      <c r="P62"/>
-      <c r="Q62"/>
+      <c r="P62" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -4972,148 +5156,148 @@
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D63" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E63" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F63" t="n">
-        <v>-23.328222</v>
+        <v>-22.83333333</v>
       </c>
       <c r="G63" t="n">
-        <v>-45.100175</v>
+        <v>-48.51666667</v>
       </c>
       <c r="H63" t="s">
         <v>37</v>
       </c>
-      <c r="I63" t="n">
-        <v>332000</v>
-      </c>
+      <c r="I63"/>
       <c r="J63" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K63" t="n">
-        <v>964</v>
+        <v>758</v>
       </c>
       <c r="L63" t="n">
-        <v>16.8</v>
+        <v>19.34</v>
       </c>
       <c r="M63" t="n">
-        <v>1768</v>
+        <v>1323</v>
       </c>
       <c r="N63" t="s">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="O63" t="s">
-        <v>91</v>
+        <v>287</v>
       </c>
       <c r="P63" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="Q63" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D64" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E64" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F64" t="n">
-        <v>-23.47861111</v>
+        <v>-21.46666667</v>
       </c>
       <c r="G64" t="n">
-        <v>-45.17611111</v>
+        <v>-46.8</v>
       </c>
       <c r="H64" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I64"/>
       <c r="J64" t="s">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="K64" t="n">
-        <v>69</v>
+        <v>773</v>
       </c>
       <c r="L64" t="n">
-        <v>22.17</v>
+        <v>20.29</v>
       </c>
       <c r="M64" t="n">
-        <v>2473</v>
+        <v>1451</v>
       </c>
       <c r="N64" t="s">
         <v>24</v>
       </c>
       <c r="O64" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="P64" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="Q64" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D65" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E65" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F65" t="n">
-        <v>-21.23333333</v>
+        <v>-22.421086</v>
       </c>
       <c r="G65" t="n">
-        <v>-47.91666667</v>
+        <v>-47.531903</v>
       </c>
       <c r="H65" t="s">
-        <v>51</v>
-      </c>
-      <c r="I65"/>
+        <v>37</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2230</v>
+      </c>
       <c r="J65" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K65" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L65" t="n">
-        <v>21.51</v>
+        <v>20.23</v>
       </c>
       <c r="M65" t="n">
-        <v>1444</v>
+        <v>1270</v>
       </c>
       <c r="N65" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="O65" t="s">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="P65" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="Q65" t="s">
         <v>41</v>
@@ -5121,363 +5305,351 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D66" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E66" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F66" t="n">
-        <v>-23.03694444</v>
+        <v>-21.32222222</v>
       </c>
       <c r="G66" t="n">
-        <v>-45.49277778</v>
+        <v>-47.28166667</v>
       </c>
       <c r="H66" t="s">
         <v>37</v>
       </c>
       <c r="I66"/>
       <c r="J66" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K66" t="n">
-        <v>603</v>
+        <v>784</v>
       </c>
       <c r="L66" t="n">
-        <v>20.34</v>
+        <v>20.77</v>
       </c>
       <c r="M66" t="n">
-        <v>1295</v>
+        <v>1462</v>
       </c>
       <c r="N66" t="s">
         <v>24</v>
       </c>
       <c r="O66" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="P66" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="Q66" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="D67" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E67" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F67" t="n">
-        <v>-13.59527778</v>
+        <v>-20.664522</v>
       </c>
       <c r="G67" t="n">
-        <v>-39.71944444</v>
+        <v>-47.271435</v>
       </c>
       <c r="H67" t="s">
         <v>37</v>
       </c>
-      <c r="I67" t="n">
-        <v>2418</v>
-      </c>
+      <c r="I67"/>
       <c r="J67" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K67" t="n">
-        <v>355</v>
+        <v>848</v>
       </c>
       <c r="L67" t="n">
-        <v>20.48</v>
+        <v>20.76</v>
       </c>
       <c r="M67" t="n">
-        <v>1457</v>
+        <v>1537</v>
       </c>
       <c r="N67" t="s">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="O67" t="s">
-        <v>155</v>
+        <v>287</v>
       </c>
       <c r="P67" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="Q67" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="D68" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E68" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F68" t="n">
-        <v>-18.09027778</v>
+        <v>-22.43333333</v>
       </c>
       <c r="G68" t="n">
-        <v>-39.89222222</v>
+        <v>-46.8</v>
       </c>
       <c r="H68" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I68"/>
       <c r="J68" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K68" t="n">
-        <v>47</v>
+        <v>751</v>
       </c>
       <c r="L68" t="n">
-        <v>24.05</v>
+        <v>20.14</v>
       </c>
       <c r="M68" t="n">
-        <v>1313</v>
+        <v>1357</v>
       </c>
       <c r="N68" t="s">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="O68" t="s">
-        <v>155</v>
+        <v>287</v>
       </c>
       <c r="P68" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="Q68" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="D69" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E69" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F69" t="n">
-        <v>-15.71222222</v>
+        <v>-25.185</v>
       </c>
       <c r="G69" t="n">
-        <v>-39.57916667</v>
+        <v>-47.99527778</v>
       </c>
       <c r="H69" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I69"/>
       <c r="J69" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K69" t="n">
-        <v>246</v>
-      </c>
-      <c r="L69" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1043</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="L69"/>
+      <c r="M69"/>
       <c r="N69" t="s">
         <v>24</v>
       </c>
       <c r="O69" t="s">
-        <v>155</v>
-      </c>
-      <c r="P69" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>156</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P69"/>
+      <c r="Q69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="D70" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E70" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F70" t="n">
-        <v>-15.38111111</v>
+        <v>-23.347353</v>
       </c>
       <c r="G70" t="n">
-        <v>-39.52333333</v>
+        <v>-44.844806</v>
       </c>
       <c r="H70" t="s">
         <v>37</v>
       </c>
-      <c r="I70"/>
+      <c r="I70" t="n">
+        <v>332000</v>
+      </c>
       <c r="J70" t="s">
-        <v>118</v>
+        <v>314</v>
       </c>
       <c r="K70" t="n">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="L70" t="n">
-        <v>22.82</v>
+        <v>22.4</v>
       </c>
       <c r="M70" t="n">
-        <v>1233</v>
+        <v>2561</v>
       </c>
       <c r="N70" t="s">
         <v>24</v>
       </c>
       <c r="O70" t="s">
-        <v>155</v>
-      </c>
-      <c r="P70" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>156</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P70"/>
+      <c r="Q70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="D71" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E71" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F71" t="n">
-        <v>-17.12694444</v>
+        <v>-23.328222</v>
       </c>
       <c r="G71" t="n">
-        <v>-40.4225</v>
+        <v>-45.100175</v>
       </c>
       <c r="H71" t="s">
         <v>37</v>
       </c>
-      <c r="I71"/>
+      <c r="I71" t="n">
+        <v>332000</v>
+      </c>
       <c r="J71" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K71" t="n">
-        <v>309</v>
+        <v>964</v>
       </c>
       <c r="L71" t="n">
-        <v>23.13</v>
+        <v>16.8</v>
       </c>
       <c r="M71" t="n">
-        <v>1102</v>
+        <v>1768</v>
       </c>
       <c r="N71" t="s">
         <v>24</v>
       </c>
       <c r="O71" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="Q71" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="D72" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E72" t="s">
         <v>319</v>
       </c>
       <c r="F72" t="n">
-        <v>-15.173781</v>
+        <v>-23.47861111</v>
       </c>
       <c r="G72" t="n">
-        <v>-39.088672</v>
+        <v>-45.17611111</v>
       </c>
       <c r="H72" t="s">
         <v>37</v>
       </c>
-      <c r="I72" t="n">
-        <v>18515.14713</v>
-      </c>
+      <c r="I72"/>
       <c r="J72" t="s">
         <v>320</v>
       </c>
       <c r="K72" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L72" t="n">
-        <v>24.05</v>
+        <v>22.17</v>
       </c>
       <c r="M72" t="n">
-        <v>1800</v>
+        <v>2473</v>
       </c>
       <c r="N72" t="s">
         <v>24</v>
       </c>
       <c r="O72" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="P72" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="Q72" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73">
@@ -5488,7 +5660,7 @@
         <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="D73" t="s">
         <v>322</v>
@@ -5497,38 +5669,38 @@
         <v>323</v>
       </c>
       <c r="F73" t="n">
-        <v>-16.99861111</v>
+        <v>-21.23333333</v>
       </c>
       <c r="G73" t="n">
-        <v>-39.58583333</v>
+        <v>-47.91666667</v>
       </c>
       <c r="H73" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I73"/>
       <c r="J73" t="s">
         <v>324</v>
       </c>
       <c r="K73" t="n">
-        <v>75</v>
+        <v>613</v>
       </c>
       <c r="L73" t="n">
-        <v>23.32</v>
+        <v>21.51</v>
       </c>
       <c r="M73" t="n">
-        <v>1207</v>
+        <v>1444</v>
       </c>
       <c r="N73" t="s">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="O73" t="s">
-        <v>155</v>
+        <v>287</v>
       </c>
       <c r="P73" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="Q73" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74">
@@ -5539,7 +5711,7 @@
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="D74" t="s">
         <v>326</v>
@@ -5548,49 +5720,49 @@
         <v>327</v>
       </c>
       <c r="F74" t="n">
-        <v>-12.25</v>
+        <v>-22.83833333</v>
       </c>
       <c r="G74" t="n">
-        <v>-38</v>
+        <v>-45.52305556</v>
       </c>
       <c r="H74" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="I74"/>
       <c r="J74" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="K74" t="n">
-        <v>71</v>
+        <v>1073</v>
       </c>
       <c r="L74" t="n">
-        <v>24.08</v>
+        <v>19</v>
       </c>
       <c r="M74" t="n">
-        <v>1793</v>
+        <v>1499</v>
       </c>
       <c r="N74" t="s">
         <v>24</v>
       </c>
       <c r="O74" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="P74" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="Q74" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="D75" t="s">
         <v>330</v>
@@ -5599,10 +5771,10 @@
         <v>331</v>
       </c>
       <c r="F75" t="n">
-        <v>-9.606111111</v>
+        <v>-23.03694444</v>
       </c>
       <c r="G75" t="n">
-        <v>-35.70916667</v>
+        <v>-45.49277778</v>
       </c>
       <c r="H75" t="s">
         <v>37</v>
@@ -5612,604 +5784,652 @@
         <v>332</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>603</v>
       </c>
       <c r="L75" t="n">
-        <v>24.65</v>
+        <v>20.34</v>
       </c>
       <c r="M75" t="n">
-        <v>1942</v>
+        <v>1295</v>
       </c>
       <c r="N75" t="s">
         <v>24</v>
       </c>
       <c r="O75" t="s">
-        <v>333</v>
+        <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>334</v>
+        <v>92</v>
       </c>
       <c r="Q75" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>333</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>334</v>
+      </c>
+      <c r="D76" t="s">
+        <v>335</v>
+      </c>
+      <c r="E76" t="s">
         <v>336</v>
       </c>
-      <c r="B76" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" t="s">
-        <v>329</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="F76" t="n">
+        <v>-13.59527778</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-39.71944444</v>
+      </c>
+      <c r="H76" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2418</v>
+      </c>
+      <c r="J76" t="s">
         <v>337</v>
       </c>
-      <c r="E76" t="s">
-        <v>338</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-8.995</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-35.86888889</v>
-      </c>
-      <c r="H76" t="s">
-        <v>160</v>
-      </c>
-      <c r="I76"/>
-      <c r="J76" t="s">
-        <v>339</v>
-      </c>
       <c r="K76" t="n">
-        <v>454</v>
+        <v>355</v>
       </c>
       <c r="L76" t="n">
-        <v>22.05</v>
+        <v>20.48</v>
       </c>
       <c r="M76" t="n">
-        <v>1686</v>
+        <v>1457</v>
       </c>
       <c r="N76" t="s">
         <v>24</v>
       </c>
       <c r="O76" t="s">
-        <v>333</v>
+        <v>164</v>
       </c>
       <c r="P76" t="s">
-        <v>334</v>
+        <v>92</v>
       </c>
       <c r="Q76" t="s">
-        <v>335</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>338</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>334</v>
+      </c>
+      <c r="D77" t="s">
+        <v>339</v>
+      </c>
+      <c r="E77" t="s">
         <v>340</v>
       </c>
-      <c r="B77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="F77" t="n">
+        <v>-18.09027778</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-39.89222222</v>
+      </c>
+      <c r="H77" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77"/>
+      <c r="J77" t="s">
         <v>341</v>
       </c>
-      <c r="D77" t="s">
-        <v>342</v>
-      </c>
-      <c r="E77" t="s">
-        <v>343</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-7.146388889</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-34.86138889</v>
-      </c>
-      <c r="H77" t="s">
-        <v>37</v>
-      </c>
-      <c r="I77" t="n">
-        <v>519.75</v>
-      </c>
-      <c r="J77" t="s">
-        <v>344</v>
-      </c>
       <c r="K77" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="L77" t="n">
-        <v>25.64</v>
+        <v>24.05</v>
       </c>
       <c r="M77" t="n">
-        <v>1902</v>
+        <v>1313</v>
       </c>
       <c r="N77" t="s">
         <v>24</v>
       </c>
       <c r="O77" t="s">
-        <v>345</v>
+        <v>164</v>
       </c>
       <c r="P77" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="Q77" t="s">
-        <v>335</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D78" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E78" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F78" t="n">
-        <v>-8.369444444</v>
+        <v>-15.71222222</v>
       </c>
       <c r="G78" t="n">
-        <v>-36.06111111</v>
+        <v>-39.57916667</v>
       </c>
       <c r="H78" t="s">
         <v>37</v>
       </c>
       <c r="I78"/>
       <c r="J78" t="s">
-        <v>214</v>
+        <v>345</v>
       </c>
       <c r="K78" t="n">
-        <v>842</v>
+        <v>246</v>
       </c>
       <c r="L78" t="n">
-        <v>19.86</v>
+        <v>22.83</v>
       </c>
       <c r="M78" t="n">
-        <v>745</v>
-      </c>
-      <c r="N78"/>
+        <v>1043</v>
+      </c>
+      <c r="N78" t="s">
+        <v>24</v>
+      </c>
       <c r="O78" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="P78" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="Q78" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
       </c>
       <c r="C79" t="s">
+        <v>334</v>
+      </c>
+      <c r="D79" t="s">
         <v>347</v>
       </c>
-      <c r="D79" t="s">
-        <v>353</v>
-      </c>
       <c r="E79" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F79" t="n">
-        <v>-8.010833333</v>
+        <v>-15.38111111</v>
       </c>
       <c r="G79" t="n">
-        <v>-34.94722222</v>
+        <v>-39.52333333</v>
       </c>
       <c r="H79" t="s">
         <v>37</v>
       </c>
-      <c r="I79" t="n">
-        <v>384.42</v>
-      </c>
+      <c r="I79"/>
       <c r="J79" t="s">
-        <v>305</v>
+        <v>124</v>
       </c>
       <c r="K79" t="n">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="L79" t="n">
-        <v>25.11</v>
+        <v>22.82</v>
       </c>
       <c r="M79" t="n">
-        <v>1587</v>
-      </c>
-      <c r="N79"/>
+        <v>1233</v>
+      </c>
+      <c r="N79" t="s">
+        <v>24</v>
+      </c>
       <c r="O79" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="P79" t="s">
-        <v>355</v>
+        <v>92</v>
       </c>
       <c r="Q79" t="s">
-        <v>335</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D80" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F80" t="n">
-        <v>-7.964444444</v>
+        <v>-17.12694444</v>
       </c>
       <c r="G80" t="n">
-        <v>-35.03666667</v>
+        <v>-40.4225</v>
       </c>
       <c r="H80" t="s">
         <v>37</v>
       </c>
       <c r="I80"/>
       <c r="J80" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K80" t="n">
-        <v>51</v>
+        <v>309</v>
       </c>
       <c r="L80" t="n">
-        <v>24.43</v>
+        <v>23.13</v>
       </c>
       <c r="M80" t="n">
-        <v>1404</v>
+        <v>1102</v>
       </c>
       <c r="N80" t="s">
         <v>24</v>
       </c>
       <c r="O80" t="s">
-        <v>333</v>
+        <v>193</v>
       </c>
       <c r="P80" t="s">
-        <v>334</v>
+        <v>54</v>
       </c>
       <c r="Q80" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="D81" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E81" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F81" t="n">
-        <v>-20.64055556</v>
+        <v>-15.173781</v>
       </c>
       <c r="G81" t="n">
-        <v>-56.80861111</v>
+        <v>-39.088672</v>
       </c>
       <c r="H81" t="s">
         <v>37</v>
       </c>
       <c r="I81" t="n">
-        <v>77021.57812</v>
+        <v>18515.14713</v>
       </c>
       <c r="J81" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K81" t="n">
-        <v>304</v>
+        <v>15</v>
       </c>
       <c r="L81" t="n">
-        <v>22.88</v>
+        <v>24.05</v>
       </c>
       <c r="M81" t="n">
-        <v>1277</v>
+        <v>1800</v>
       </c>
       <c r="N81" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="O81" t="s">
-        <v>255</v>
-      </c>
-      <c r="P81"/>
-      <c r="Q81"/>
+        <v>164</v>
+      </c>
+      <c r="P81" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="D82" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E82" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F82" t="n">
-        <v>-31.676944</v>
+        <v>-16.99861111</v>
       </c>
       <c r="G82" t="n">
-        <v>-52.417097</v>
+        <v>-39.58583333</v>
       </c>
       <c r="H82" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I82"/>
       <c r="J82" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="K82" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L82" t="n">
-        <v>19.26</v>
+        <v>23.32</v>
       </c>
       <c r="M82" t="n">
-        <v>1391</v>
-      </c>
-      <c r="N82"/>
+        <v>1207</v>
+      </c>
+      <c r="N82" t="s">
+        <v>24</v>
+      </c>
       <c r="O82" t="s">
-        <v>39</v>
-      </c>
-      <c r="P82"/>
-      <c r="Q82"/>
+        <v>164</v>
+      </c>
+      <c r="P82" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>334</v>
       </c>
       <c r="D83" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E83" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F83" t="n">
-        <v>-14.9333</v>
+        <v>-12.25</v>
       </c>
       <c r="G83" t="n">
-        <v>-43.8333</v>
+        <v>-38</v>
       </c>
       <c r="H83" t="s">
-        <v>37</v>
-      </c>
-      <c r="I83" t="n">
-        <v>20500</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="I83"/>
       <c r="J83" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="K83" t="n">
-        <v>456</v>
+        <v>71</v>
       </c>
       <c r="L83" t="n">
-        <v>24.15</v>
+        <v>24.08</v>
       </c>
       <c r="M83" t="n">
-        <v>804</v>
-      </c>
-      <c r="N83"/>
+        <v>1793</v>
+      </c>
+      <c r="N83" t="s">
+        <v>24</v>
+      </c>
       <c r="O83" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="P83" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="Q83" t="s">
-        <v>373</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>364</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>365</v>
+      </c>
+      <c r="D84" t="s">
+        <v>366</v>
+      </c>
+      <c r="E84" t="s">
+        <v>367</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-9.606111111</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-35.70916667</v>
+      </c>
+      <c r="H84" t="s">
+        <v>37</v>
+      </c>
+      <c r="I84"/>
+      <c r="J84" t="s">
+        <v>368</v>
+      </c>
+      <c r="K84" t="n">
+        <v>4</v>
+      </c>
+      <c r="L84" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1942</v>
+      </c>
+      <c r="N84" t="s">
+        <v>24</v>
+      </c>
+      <c r="O84" t="s">
+        <v>369</v>
+      </c>
+      <c r="P84" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>372</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>365</v>
+      </c>
+      <c r="D85" t="s">
+        <v>373</v>
+      </c>
+      <c r="E85" t="s">
         <v>374</v>
       </c>
-      <c r="B84" t="s">
+      <c r="F85" t="n">
+        <v>-8.995</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-35.86888889</v>
+      </c>
+      <c r="H85" t="s">
+        <v>169</v>
+      </c>
+      <c r="I85"/>
+      <c r="J85" t="s">
         <v>375</v>
       </c>
-      <c r="C84" t="s">
-        <v>376</v>
-      </c>
-      <c r="D84" t="s">
-        <v>377</v>
-      </c>
-      <c r="E84" t="s">
-        <v>378</v>
-      </c>
-      <c r="F84" t="n">
-        <v>-25.565583</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-54.077485</v>
-      </c>
-      <c r="H84" t="s">
-        <v>37</v>
-      </c>
-      <c r="I84" t="n">
-        <v>570</v>
-      </c>
-      <c r="J84" t="s">
-        <v>379</v>
-      </c>
-      <c r="K84" t="n">
-        <v>219</v>
-      </c>
-      <c r="L84" t="n">
-        <v>20.09</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1769</v>
-      </c>
-      <c r="N84" t="s">
-        <v>24</v>
-      </c>
-      <c r="O84" t="s">
-        <v>53</v>
-      </c>
-      <c r="P84"/>
-      <c r="Q84"/>
-    </row>
-    <row r="85">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="O85"/>
-      <c r="P85"/>
-      <c r="Q85"/>
+      <c r="K85" t="n">
+        <v>454</v>
+      </c>
+      <c r="L85" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1686</v>
+      </c>
+      <c r="N85" t="s">
+        <v>24</v>
+      </c>
+      <c r="O85" t="s">
+        <v>369</v>
+      </c>
+      <c r="P85" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>376</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>377</v>
+      </c>
+      <c r="D86" t="s">
+        <v>378</v>
+      </c>
+      <c r="E86" t="s">
+        <v>379</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-7.146388889</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-34.86138889</v>
+      </c>
+      <c r="H86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I86" t="n">
+        <v>519.75</v>
+      </c>
+      <c r="J86" t="s">
         <v>380</v>
       </c>
-      <c r="B86" t="s">
-        <v>375</v>
-      </c>
-      <c r="C86" t="s">
-        <v>376</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="K86" t="n">
+        <v>5</v>
+      </c>
+      <c r="L86" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1902</v>
+      </c>
+      <c r="N86" t="s">
+        <v>24</v>
+      </c>
+      <c r="O86" t="s">
         <v>381</v>
       </c>
-      <c r="E86" t="s">
-        <v>382</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-27.279268</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-55.578289</v>
-      </c>
-      <c r="H86" t="s">
-        <v>37</v>
-      </c>
-      <c r="I86" t="n">
-        <v>78</v>
-      </c>
-      <c r="J86" t="s">
-        <v>383</v>
-      </c>
-      <c r="K86" t="n">
-        <v>170</v>
-      </c>
-      <c r="L86" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1681</v>
-      </c>
-      <c r="N86" t="s">
-        <v>24</v>
-      </c>
-      <c r="O86" t="s">
-        <v>53</v>
-      </c>
-      <c r="P86"/>
-      <c r="Q86"/>
+      <c r="P86" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>382</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>383</v>
+      </c>
+      <c r="D87" t="s">
         <v>384</v>
       </c>
-      <c r="B87" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" t="s">
-        <v>43</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>385</v>
       </c>
-      <c r="E87" t="s">
-        <v>386</v>
-      </c>
       <c r="F87" t="n">
-        <v>-24.305574</v>
+        <v>-8.369444444</v>
       </c>
       <c r="G87" t="n">
-        <v>-49.726016</v>
+        <v>-36.06111111</v>
       </c>
       <c r="H87" t="s">
         <v>37</v>
       </c>
       <c r="I87"/>
       <c r="J87" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K87" t="n">
-        <v>894</v>
+        <v>842</v>
       </c>
       <c r="L87" t="n">
-        <v>17.08</v>
+        <v>19.86</v>
       </c>
       <c r="M87" t="n">
-        <v>1401</v>
-      </c>
-      <c r="N87" t="s">
-        <v>254</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="N87"/>
       <c r="O87" t="s">
-        <v>255</v>
+        <v>386</v>
       </c>
       <c r="P87" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q87" t="s">
-        <v>27</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B88" t="s">
         <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D88" t="s">
         <v>389</v>
@@ -6218,35 +6438,39 @@
         <v>390</v>
       </c>
       <c r="F88" t="n">
-        <v>-17.77</v>
+        <v>-8.010833333</v>
       </c>
       <c r="G88" t="n">
-        <v>-49.19694444</v>
+        <v>-34.94722222</v>
       </c>
       <c r="H88" t="s">
-        <v>126</v>
-      </c>
-      <c r="I88"/>
+        <v>37</v>
+      </c>
+      <c r="I88" t="n">
+        <v>384.42</v>
+      </c>
       <c r="J88" t="s">
+        <v>341</v>
+      </c>
+      <c r="K88" t="n">
+        <v>23</v>
+      </c>
+      <c r="L88" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1587</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88" t="s">
+        <v>223</v>
+      </c>
+      <c r="P88" t="s">
         <v>391</v>
       </c>
-      <c r="K88" t="n">
-        <v>812</v>
-      </c>
-      <c r="L88" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="M88" t="n">
-        <v>1543</v>
-      </c>
-      <c r="N88" t="s">
-        <v>254</v>
-      </c>
-      <c r="O88" t="s">
-        <v>255</v>
-      </c>
-      <c r="P88"/>
-      <c r="Q88"/>
+      <c r="Q88" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -6256,7 +6480,7 @@
         <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="D89" t="s">
         <v>393</v>
@@ -6265,38 +6489,38 @@
         <v>394</v>
       </c>
       <c r="F89" t="n">
-        <v>-25.09944444</v>
+        <v>-7.964444444</v>
       </c>
       <c r="G89" t="n">
-        <v>-50.15833333</v>
+        <v>-35.03666667</v>
       </c>
       <c r="H89" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I89"/>
       <c r="J89" t="s">
         <v>395</v>
       </c>
       <c r="K89" t="n">
-        <v>908</v>
+        <v>51</v>
       </c>
       <c r="L89" t="n">
-        <v>17.3</v>
+        <v>24.43</v>
       </c>
       <c r="M89" t="n">
-        <v>1486</v>
+        <v>1404</v>
       </c>
       <c r="N89" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="O89" t="s">
-        <v>255</v>
+        <v>369</v>
       </c>
       <c r="P89" t="s">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="Q89" t="s">
-        <v>27</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90">
@@ -6307,452 +6531,424 @@
         <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>194</v>
+        <v>397</v>
       </c>
       <c r="D90" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E90" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F90" t="n">
-        <v>-22.26055556</v>
+        <v>-20.64055556</v>
       </c>
       <c r="G90" t="n">
-        <v>-47.89666667</v>
+        <v>-56.80861111</v>
       </c>
       <c r="H90" t="s">
         <v>37</v>
       </c>
-      <c r="I90"/>
+      <c r="I90" t="n">
+        <v>77021.57812</v>
+      </c>
       <c r="J90" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K90" t="n">
-        <v>921</v>
+        <v>304</v>
       </c>
       <c r="L90" t="n">
-        <v>19.68</v>
+        <v>22.88</v>
       </c>
       <c r="M90" t="n">
-        <v>1360</v>
+        <v>1277</v>
       </c>
       <c r="N90" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="O90" t="s">
-        <v>255</v>
-      </c>
-      <c r="P90" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>41</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="P90"/>
+      <c r="Q90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E91" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F91" t="n">
-        <v>-22.29916667</v>
+        <v>-31.676944</v>
       </c>
       <c r="G91" t="n">
-        <v>-47.10638889</v>
+        <v>-52.417097</v>
       </c>
       <c r="H91" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I91"/>
       <c r="J91" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K91" t="n">
-        <v>604</v>
+        <v>78</v>
       </c>
       <c r="L91" t="n">
-        <v>20.76</v>
+        <v>19.26</v>
       </c>
       <c r="M91" t="n">
-        <v>1308</v>
-      </c>
-      <c r="N91" t="s">
-        <v>254</v>
-      </c>
+        <v>1391</v>
+      </c>
+      <c r="N91"/>
       <c r="O91" t="s">
-        <v>255</v>
-      </c>
-      <c r="P91" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="P91"/>
+      <c r="Q91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B92" t="s">
         <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D92" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E92" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F92" t="n">
-        <v>-21.60105556</v>
+        <v>-14.9333</v>
       </c>
       <c r="G92" t="n">
-        <v>-47.80695556</v>
+        <v>-43.8333</v>
       </c>
       <c r="H92" t="s">
         <v>37</v>
       </c>
       <c r="I92" t="n">
-        <v>9010</v>
+        <v>20500</v>
       </c>
       <c r="J92" t="s">
-        <v>103</v>
+        <v>408</v>
       </c>
       <c r="K92" t="n">
-        <v>609</v>
+        <v>456</v>
       </c>
       <c r="L92" t="n">
-        <v>21.6</v>
+        <v>24.15</v>
       </c>
       <c r="M92" t="n">
-        <v>1371</v>
-      </c>
-      <c r="N92" t="s">
-        <v>254</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="N92"/>
       <c r="O92" t="s">
-        <v>255</v>
+        <v>386</v>
       </c>
       <c r="P92" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q92" t="s">
-        <v>41</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>412</v>
       </c>
       <c r="D93" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E93" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F93" t="n">
-        <v>-21.623477</v>
+        <v>-25.565583</v>
       </c>
       <c r="G93" t="n">
-        <v>-47.625408</v>
+        <v>-54.077485</v>
       </c>
       <c r="H93" t="s">
         <v>37</v>
       </c>
-      <c r="I93"/>
+      <c r="I93" t="n">
+        <v>570</v>
+      </c>
       <c r="J93" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K93" t="n">
-        <v>655</v>
+        <v>219</v>
       </c>
       <c r="L93" t="n">
-        <v>21.02</v>
+        <v>20.09</v>
       </c>
       <c r="M93" t="n">
-        <v>1413</v>
+        <v>1769</v>
       </c>
       <c r="N93" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="O93" t="s">
-        <v>255</v>
-      </c>
-      <c r="P93" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>41</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P93"/>
+      <c r="Q93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>416</v>
+      </c>
+      <c r="B94" t="s">
         <v>411</v>
       </c>
-      <c r="B94" t="s">
-        <v>18</v>
-      </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>412</v>
       </c>
       <c r="D94" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E94" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F94" t="n">
-        <v>-23.58333333</v>
+        <v>-25.683611</v>
       </c>
       <c r="G94" t="n">
-        <v>-48.16666667</v>
+        <v>-54.453889</v>
       </c>
       <c r="H94" t="s">
         <v>37</v>
       </c>
-      <c r="I94"/>
+      <c r="I94" t="n">
+        <v>67620</v>
+      </c>
       <c r="J94" t="s">
-        <v>414</v>
-      </c>
-      <c r="K94" t="n">
-        <v>638</v>
-      </c>
-      <c r="L94" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1189</v>
-      </c>
-      <c r="N94" t="s">
-        <v>254</v>
-      </c>
-      <c r="O94" t="s">
-        <v>255</v>
-      </c>
-      <c r="P94" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>41</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>411</v>
       </c>
       <c r="C95" t="s">
-        <v>194</v>
+        <v>412</v>
       </c>
       <c r="D95" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E95" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F95" t="n">
-        <v>-22.66666667</v>
+        <v>-27.279268</v>
       </c>
       <c r="G95" t="n">
-        <v>-50.13333333</v>
+        <v>-55.578289</v>
       </c>
       <c r="H95" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I95" t="n">
-        <v>1760.64</v>
+        <v>78</v>
       </c>
       <c r="J95" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K95" t="n">
-        <v>593</v>
+        <v>170</v>
       </c>
       <c r="L95" t="n">
-        <v>20.64</v>
+        <v>21.37</v>
       </c>
       <c r="M95" t="n">
-        <v>1191</v>
+        <v>1681</v>
       </c>
       <c r="N95" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="O95" t="s">
-        <v>255</v>
-      </c>
-      <c r="P95" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>41</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P95"/>
+      <c r="Q95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B96" t="s">
         <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>388</v>
+        <v>43</v>
       </c>
       <c r="D96" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E96" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F96" t="n">
-        <v>-16.02083333</v>
+        <v>-24.305574</v>
       </c>
       <c r="G96" t="n">
-        <v>-49.08444444</v>
+        <v>-49.726016</v>
       </c>
       <c r="H96" t="s">
         <v>37</v>
       </c>
       <c r="I96"/>
       <c r="J96" t="s">
-        <v>422</v>
+        <v>264</v>
       </c>
       <c r="K96" t="n">
-        <v>799</v>
+        <v>894</v>
       </c>
       <c r="L96" t="n">
-        <v>23.22</v>
+        <v>17.08</v>
       </c>
       <c r="M96" t="n">
-        <v>1665</v>
+        <v>1401</v>
       </c>
       <c r="N96" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="O96" t="s">
-        <v>255</v>
-      </c>
-      <c r="P96"/>
-      <c r="Q96"/>
+        <v>287</v>
+      </c>
+      <c r="P96" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B97" t="s">
         <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>298</v>
+        <v>428</v>
       </c>
       <c r="D97" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E97" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="F97" t="n">
-        <v>-15.51388889</v>
+        <v>-17.77</v>
       </c>
       <c r="G97" t="n">
-        <v>-41.25027778</v>
+        <v>-49.19694444</v>
       </c>
       <c r="H97" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="I97"/>
       <c r="J97" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K97" t="n">
-        <v>564</v>
+        <v>812</v>
       </c>
       <c r="L97" t="n">
-        <v>21.68</v>
+        <v>22.22</v>
       </c>
       <c r="M97" t="n">
-        <v>870</v>
+        <v>1543</v>
       </c>
       <c r="N97" t="s">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="O97" t="s">
-        <v>184</v>
-      </c>
-      <c r="P97" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>427</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="P97"/>
+      <c r="Q97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D98" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E98" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F98" t="n">
-        <v>-29.44282</v>
+        <v>-25.09944444</v>
       </c>
       <c r="G98" t="n">
-        <v>-50.611356</v>
+        <v>-50.15833333</v>
       </c>
       <c r="H98" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I98"/>
       <c r="J98" t="s">
-        <v>32</v>
+        <v>435</v>
       </c>
       <c r="K98" t="n">
-        <v>632</v>
+        <v>908</v>
       </c>
       <c r="L98" t="n">
-        <v>15.04</v>
+        <v>17.3</v>
       </c>
       <c r="M98" t="n">
-        <v>2097</v>
+        <v>1486</v>
       </c>
       <c r="N98" t="s">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="O98" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="P98" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="Q98" t="s">
         <v>27</v>
@@ -6760,240 +6956,256 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B99" t="s">
         <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="D99" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E99" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F99" t="n">
-        <v>-31.814044</v>
+        <v>-19.366944</v>
       </c>
       <c r="G99" t="n">
-        <v>-52.432475</v>
+        <v>-43.538056</v>
       </c>
       <c r="H99" t="s">
-        <v>37</v>
-      </c>
-      <c r="I99"/>
+        <v>51</v>
+      </c>
+      <c r="I99" t="n">
+        <v>33800</v>
+      </c>
       <c r="J99" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K99" t="n">
-        <v>23</v>
+        <v>1395</v>
       </c>
       <c r="L99" t="n">
-        <v>19.33</v>
+        <v>18.35</v>
       </c>
       <c r="M99" t="n">
-        <v>1370</v>
-      </c>
-      <c r="N99"/>
+        <v>1533</v>
+      </c>
+      <c r="N99" t="s">
+        <v>286</v>
+      </c>
       <c r="O99" t="s">
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="P99"/>
       <c r="Q99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B100" t="s">
         <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="D100" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E100" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F100" t="n">
-        <v>-31.665256</v>
+        <v>-20.01027778</v>
       </c>
       <c r="G100" t="n">
-        <v>-52.583939</v>
+        <v>-43.96888889</v>
       </c>
       <c r="H100" t="s">
         <v>37</v>
       </c>
-      <c r="I100"/>
+      <c r="I100" t="n">
+        <v>1250</v>
+      </c>
       <c r="J100" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K100" t="n">
-        <v>154</v>
+        <v>1210</v>
       </c>
       <c r="L100" t="n">
-        <v>18.75</v>
+        <v>18.8</v>
       </c>
       <c r="M100" t="n">
-        <v>1405</v>
-      </c>
-      <c r="N100"/>
+        <v>1607</v>
+      </c>
+      <c r="N100" t="s">
+        <v>24</v>
+      </c>
       <c r="O100" t="s">
-        <v>39</v>
-      </c>
-      <c r="P100"/>
-      <c r="Q100"/>
+        <v>113</v>
+      </c>
+      <c r="P100" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B101" t="s">
         <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="D101" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E101" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="F101" t="n">
-        <v>-29.364375</v>
+        <v>-22.26055556</v>
       </c>
       <c r="G101" t="n">
-        <v>-49.853506</v>
+        <v>-47.89666667</v>
       </c>
       <c r="H101" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I101"/>
       <c r="J101" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="K101" t="n">
-        <v>84</v>
+        <v>921</v>
       </c>
       <c r="L101" t="n">
-        <v>18.69</v>
+        <v>19.68</v>
       </c>
       <c r="M101" t="n">
-        <v>1490</v>
+        <v>1360</v>
       </c>
       <c r="N101" t="s">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="O101" t="s">
-        <v>91</v>
+        <v>287</v>
       </c>
       <c r="P101" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="Q101" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B102" t="s">
         <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>361</v>
+        <v>219</v>
       </c>
       <c r="D102" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E102" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="F102" t="n">
-        <v>-20.993649</v>
+        <v>-22.29916667</v>
       </c>
       <c r="G102" t="n">
-        <v>-51.816454</v>
+        <v>-47.10638889</v>
       </c>
       <c r="H102" t="s">
         <v>37</v>
       </c>
       <c r="I102"/>
       <c r="J102" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K102" t="n">
-        <v>306</v>
+        <v>604</v>
       </c>
       <c r="L102" t="n">
-        <v>23.1</v>
+        <v>20.76</v>
       </c>
       <c r="M102" t="n">
-        <v>1158</v>
+        <v>1308</v>
       </c>
       <c r="N102" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="O102" t="s">
-        <v>255</v>
-      </c>
-      <c r="P102"/>
-      <c r="Q102"/>
+        <v>287</v>
+      </c>
+      <c r="P102" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B103" t="s">
         <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="D103" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="E103" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="F103" t="n">
-        <v>-27.197939</v>
+        <v>-21.60105556</v>
       </c>
       <c r="G103" t="n">
-        <v>-53.889069</v>
+        <v>-47.80695556</v>
       </c>
       <c r="H103" t="s">
         <v>37</v>
       </c>
       <c r="I103" t="n">
-        <v>17491.4</v>
+        <v>9010</v>
       </c>
       <c r="J103" t="s">
-        <v>450</v>
+        <v>103</v>
       </c>
       <c r="K103" t="n">
-        <v>326</v>
+        <v>609</v>
       </c>
       <c r="L103" t="n">
-        <v>19.78</v>
+        <v>21.6</v>
       </c>
       <c r="M103" t="n">
-        <v>1839</v>
+        <v>1371</v>
       </c>
       <c r="N103" t="s">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="P103" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Q103" t="s">
         <v>41</v>
@@ -7001,50 +7213,50 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B104" t="s">
         <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="D104" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E104" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F104" t="n">
-        <v>-30.369561</v>
+        <v>-21.623477</v>
       </c>
       <c r="G104" t="n">
-        <v>-51.026006</v>
+        <v>-47.625408</v>
       </c>
       <c r="H104" t="s">
         <v>37</v>
       </c>
-      <c r="I104" t="n">
-        <v>5566</v>
-      </c>
+      <c r="I104"/>
       <c r="J104" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>655</v>
       </c>
       <c r="L104" t="n">
-        <v>19.12</v>
+        <v>21.02</v>
       </c>
       <c r="M104" t="n">
-        <v>1474</v>
-      </c>
-      <c r="N104"/>
+        <v>1413</v>
+      </c>
+      <c r="N104" t="s">
+        <v>286</v>
+      </c>
       <c r="O104" t="s">
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="P104" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q104" t="s">
         <v>41</v>
@@ -7052,150 +7264,156 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B105" t="s">
         <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>456</v>
+        <v>219</v>
       </c>
       <c r="D105" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E105" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F105" t="n">
-        <v>-5.927762</v>
+        <v>-20.240917</v>
       </c>
       <c r="G105" t="n">
-        <v>-35.183645</v>
+        <v>-47.461075</v>
       </c>
       <c r="H105" t="s">
         <v>37</v>
       </c>
-      <c r="I105"/>
+      <c r="I105" t="n">
+        <v>2069</v>
+      </c>
       <c r="J105" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K105" t="n">
-        <v>2</v>
+        <v>1014</v>
       </c>
       <c r="L105" t="n">
-        <v>25.81</v>
+        <v>19.93</v>
       </c>
       <c r="M105" t="n">
-        <v>1430</v>
+        <v>1588</v>
       </c>
       <c r="N105" t="s">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="O105" t="s">
-        <v>460</v>
+        <v>287</v>
       </c>
       <c r="P105" t="s">
-        <v>355</v>
+        <v>60</v>
       </c>
       <c r="Q105" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B106" t="s">
         <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="D106" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E106" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F106" t="n">
-        <v>-29.559801</v>
+        <v>-23.58333333</v>
       </c>
       <c r="G106" t="n">
-        <v>-51.111174</v>
+        <v>-48.16666667</v>
       </c>
       <c r="H106" t="s">
         <v>37</v>
       </c>
       <c r="I106"/>
       <c r="J106" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K106" t="n">
-        <v>314</v>
+        <v>638</v>
       </c>
       <c r="L106" t="n">
-        <v>18.71</v>
+        <v>19.01</v>
       </c>
       <c r="M106" t="n">
-        <v>1582</v>
+        <v>1189</v>
       </c>
       <c r="N106" t="s">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="P106" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Q106" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B107" t="s">
         <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="D107" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E107" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F107" t="n">
-        <v>-30.098678</v>
+        <v>-22.66666667</v>
       </c>
       <c r="G107" t="n">
-        <v>-51.157301</v>
+        <v>-50.13333333</v>
       </c>
       <c r="H107" t="s">
-        <v>37</v>
-      </c>
-      <c r="I107"/>
+        <v>51</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1760.64</v>
+      </c>
       <c r="J107" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K107" t="n">
-        <v>130</v>
+        <v>593</v>
       </c>
       <c r="L107" t="n">
-        <v>19.41</v>
+        <v>20.64</v>
       </c>
       <c r="M107" t="n">
-        <v>1505</v>
-      </c>
-      <c r="N107"/>
+        <v>1191</v>
+      </c>
+      <c r="N107" t="s">
+        <v>286</v>
+      </c>
       <c r="O107" t="s">
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="P107" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q107" t="s">
         <v>41</v>
@@ -7203,149 +7421,792 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B108" t="s">
         <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>298</v>
+        <v>428</v>
       </c>
       <c r="D108" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E108" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F108" t="n">
-        <v>-12.826644</v>
+        <v>-16.02083333</v>
       </c>
       <c r="G108" t="n">
-        <v>-39.734882</v>
+        <v>-49.08444444</v>
       </c>
       <c r="H108" t="s">
         <v>37</v>
       </c>
       <c r="I108"/>
       <c r="J108" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K108" t="n">
-        <v>443</v>
+        <v>799</v>
       </c>
       <c r="L108" t="n">
-        <v>22.22</v>
+        <v>23.22</v>
       </c>
       <c r="M108" t="n">
-        <v>632</v>
-      </c>
-      <c r="N108"/>
+        <v>1665</v>
+      </c>
+      <c r="N108" t="s">
+        <v>286</v>
+      </c>
       <c r="O108" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="P108"/>
       <c r="Q108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B109" t="s">
         <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>334</v>
       </c>
       <c r="D109" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E109" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F109" t="n">
-        <v>-21.42964807</v>
+        <v>-15.51388889</v>
       </c>
       <c r="G109" t="n">
-        <v>-45.94766311</v>
+        <v>-41.25027778</v>
       </c>
       <c r="H109" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I109"/>
       <c r="J109" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K109" t="n">
-        <v>845</v>
+        <v>564</v>
       </c>
       <c r="L109" t="n">
-        <v>19.98</v>
+        <v>21.68</v>
       </c>
       <c r="M109" t="n">
-        <v>1569</v>
+        <v>870</v>
       </c>
       <c r="N109" t="s">
         <v>24</v>
       </c>
       <c r="O109" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="P109" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q109" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B110" t="s">
         <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E110" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F110" t="n">
-        <v>-12.65</v>
+        <v>-29.44282</v>
       </c>
       <c r="G110" t="n">
-        <v>-39.11666667</v>
+        <v>-50.611356</v>
       </c>
       <c r="H110" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I110"/>
       <c r="J110" t="s">
-        <v>480</v>
+        <v>32</v>
       </c>
       <c r="K110" t="n">
+        <v>632</v>
+      </c>
+      <c r="L110" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2097</v>
+      </c>
+      <c r="N110" t="s">
+        <v>24</v>
+      </c>
+      <c r="O110" t="s">
+        <v>25</v>
+      </c>
+      <c r="P110" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>483</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" t="s">
+        <v>484</v>
+      </c>
+      <c r="E111" t="s">
+        <v>485</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-31.814044</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-52.432475</v>
+      </c>
+      <c r="H111" t="s">
+        <v>37</v>
+      </c>
+      <c r="I111"/>
+      <c r="J111" t="s">
+        <v>486</v>
+      </c>
+      <c r="K111" t="n">
+        <v>23</v>
+      </c>
+      <c r="L111" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1370</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111" t="s">
+        <v>39</v>
+      </c>
+      <c r="P111"/>
+      <c r="Q111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>487</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" t="s">
+        <v>488</v>
+      </c>
+      <c r="E112" t="s">
+        <v>489</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-31.665256</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-52.583939</v>
+      </c>
+      <c r="H112" t="s">
+        <v>37</v>
+      </c>
+      <c r="I112"/>
+      <c r="J112" t="s">
+        <v>490</v>
+      </c>
+      <c r="K112" t="n">
+        <v>154</v>
+      </c>
+      <c r="L112" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1405</v>
+      </c>
+      <c r="N112"/>
+      <c r="O112" t="s">
+        <v>39</v>
+      </c>
+      <c r="P112"/>
+      <c r="Q112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>491</v>
+      </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" t="s">
+        <v>492</v>
+      </c>
+      <c r="E113" t="s">
+        <v>493</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-29.364375</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-49.853506</v>
+      </c>
+      <c r="H113" t="s">
+        <v>51</v>
+      </c>
+      <c r="I113"/>
+      <c r="J113" t="s">
+        <v>494</v>
+      </c>
+      <c r="K113" t="n">
+        <v>84</v>
+      </c>
+      <c r="L113" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1490</v>
+      </c>
+      <c r="N113" t="s">
+        <v>24</v>
+      </c>
+      <c r="O113" t="s">
+        <v>91</v>
+      </c>
+      <c r="P113" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>495</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" t="s">
+        <v>397</v>
+      </c>
+      <c r="D114" t="s">
+        <v>496</v>
+      </c>
+      <c r="E114" t="s">
+        <v>497</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-20.993649</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-51.816454</v>
+      </c>
+      <c r="H114" t="s">
+        <v>37</v>
+      </c>
+      <c r="I114"/>
+      <c r="J114" t="s">
+        <v>498</v>
+      </c>
+      <c r="K114" t="n">
+        <v>306</v>
+      </c>
+      <c r="L114" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1158</v>
+      </c>
+      <c r="N114" t="s">
+        <v>286</v>
+      </c>
+      <c r="O114" t="s">
+        <v>287</v>
+      </c>
+      <c r="P114"/>
+      <c r="Q114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>499</v>
+      </c>
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" t="s">
+        <v>500</v>
+      </c>
+      <c r="E115" t="s">
+        <v>501</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-27.197939</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-53.889069</v>
+      </c>
+      <c r="H115" t="s">
+        <v>37</v>
+      </c>
+      <c r="I115" t="n">
+        <v>17491.4</v>
+      </c>
+      <c r="J115" t="s">
+        <v>502</v>
+      </c>
+      <c r="K115" t="n">
+        <v>326</v>
+      </c>
+      <c r="L115" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1839</v>
+      </c>
+      <c r="N115" t="s">
+        <v>24</v>
+      </c>
+      <c r="O115" t="s">
+        <v>53</v>
+      </c>
+      <c r="P115" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>503</v>
+      </c>
+      <c r="B116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" t="s">
+        <v>504</v>
+      </c>
+      <c r="E116" t="s">
+        <v>505</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-30.369561</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-51.026006</v>
+      </c>
+      <c r="H116" t="s">
+        <v>37</v>
+      </c>
+      <c r="I116" t="n">
+        <v>5566</v>
+      </c>
+      <c r="J116" t="s">
+        <v>506</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1474</v>
+      </c>
+      <c r="N116"/>
+      <c r="O116" t="s">
+        <v>39</v>
+      </c>
+      <c r="P116" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>507</v>
+      </c>
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" t="s">
+        <v>508</v>
+      </c>
+      <c r="D117" t="s">
+        <v>509</v>
+      </c>
+      <c r="E117" t="s">
+        <v>510</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-5.927762</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-35.183645</v>
+      </c>
+      <c r="H117" t="s">
+        <v>37</v>
+      </c>
+      <c r="I117"/>
+      <c r="J117" t="s">
+        <v>511</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1430</v>
+      </c>
+      <c r="N117" t="s">
+        <v>24</v>
+      </c>
+      <c r="O117" t="s">
+        <v>512</v>
+      </c>
+      <c r="P117" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>513</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" t="s">
+        <v>514</v>
+      </c>
+      <c r="E118" t="s">
+        <v>515</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-29.559801</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-51.111174</v>
+      </c>
+      <c r="H118" t="s">
+        <v>37</v>
+      </c>
+      <c r="I118"/>
+      <c r="J118" t="s">
+        <v>516</v>
+      </c>
+      <c r="K118" t="n">
+        <v>314</v>
+      </c>
+      <c r="L118" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1582</v>
+      </c>
+      <c r="N118" t="s">
+        <v>24</v>
+      </c>
+      <c r="O118" t="s">
+        <v>53</v>
+      </c>
+      <c r="P118" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>517</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" t="s">
+        <v>518</v>
+      </c>
+      <c r="E119" t="s">
+        <v>519</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-30.098678</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-51.157301</v>
+      </c>
+      <c r="H119" t="s">
+        <v>37</v>
+      </c>
+      <c r="I119"/>
+      <c r="J119" t="s">
+        <v>520</v>
+      </c>
+      <c r="K119" t="n">
+        <v>130</v>
+      </c>
+      <c r="L119" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1505</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119" t="s">
+        <v>39</v>
+      </c>
+      <c r="P119" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>521</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" t="s">
+        <v>334</v>
+      </c>
+      <c r="D120" t="s">
+        <v>522</v>
+      </c>
+      <c r="E120" t="s">
+        <v>523</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-12.826644</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-39.734882</v>
+      </c>
+      <c r="H120" t="s">
+        <v>37</v>
+      </c>
+      <c r="I120"/>
+      <c r="J120" t="s">
+        <v>524</v>
+      </c>
+      <c r="K120" t="n">
+        <v>443</v>
+      </c>
+      <c r="L120" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="M120" t="n">
+        <v>632</v>
+      </c>
+      <c r="N120"/>
+      <c r="O120" t="s">
+        <v>386</v>
+      </c>
+      <c r="P120"/>
+      <c r="Q120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>525</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" t="s">
+        <v>198</v>
+      </c>
+      <c r="D121" t="s">
+        <v>526</v>
+      </c>
+      <c r="E121" t="s">
+        <v>527</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-21.76992582</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-46.57322491</v>
+      </c>
+      <c r="H121" t="s">
+        <v>37</v>
+      </c>
+      <c r="I121"/>
+      <c r="J121" t="s">
+        <v>528</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1569</v>
+      </c>
+      <c r="L121" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1729</v>
+      </c>
+      <c r="N121" t="s">
+        <v>24</v>
+      </c>
+      <c r="O121" t="s">
+        <v>53</v>
+      </c>
+      <c r="P121" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>529</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" t="s">
+        <v>198</v>
+      </c>
+      <c r="D122" t="s">
+        <v>530</v>
+      </c>
+      <c r="E122" t="s">
+        <v>531</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-21.42964807</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-45.94766311</v>
+      </c>
+      <c r="H122" t="s">
+        <v>51</v>
+      </c>
+      <c r="I122"/>
+      <c r="J122" t="s">
+        <v>532</v>
+      </c>
+      <c r="K122" t="n">
+        <v>845</v>
+      </c>
+      <c r="L122" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1569</v>
+      </c>
+      <c r="N122" t="s">
+        <v>24</v>
+      </c>
+      <c r="O122" t="s">
+        <v>53</v>
+      </c>
+      <c r="P122" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>533</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" t="s">
+        <v>334</v>
+      </c>
+      <c r="D123" t="s">
+        <v>534</v>
+      </c>
+      <c r="E123" t="s">
+        <v>535</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-12.65</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-39.11666667</v>
+      </c>
+      <c r="H123" t="s">
+        <v>51</v>
+      </c>
+      <c r="I123"/>
+      <c r="J123" t="s">
+        <v>536</v>
+      </c>
+      <c r="K123" t="n">
         <v>139</v>
       </c>
-      <c r="L110" t="n">
+      <c r="L123" t="n">
         <v>23.14</v>
       </c>
-      <c r="M110" t="n">
+      <c r="M123" t="n">
         <v>1078</v>
       </c>
-      <c r="N110" t="s">
-        <v>24</v>
-      </c>
-      <c r="O110" t="s">
-        <v>184</v>
-      </c>
-      <c r="P110" t="s">
+      <c r="N123" t="s">
+        <v>24</v>
+      </c>
+      <c r="O123" t="s">
+        <v>193</v>
+      </c>
+      <c r="P123" t="s">
         <v>54</v>
       </c>
-      <c r="Q110" t="s">
-        <v>427</v>
+      <c r="Q123" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
